--- a/elecres.xlsx
+++ b/elecres.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skell\Documents\ENPH-213\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC56CC7-A842-4EAF-86A1-18D5B008B939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7C4AA2-A76A-492C-B461-BD4A3991F96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{07374AFC-9580-432B-A35B-9BC0DEF597C6}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{07374AFC-9580-432B-A35B-9BC0DEF597C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>frequency (+/- 0.01 kHz)</t>
   </si>
@@ -51,6 +52,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -80,9 +84,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273D3131-37A9-48FB-8B2C-1D2C25C2B893}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -420,7 +426,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>0.98499999999999999</v>
       </c>
       <c r="B2" s="1">
@@ -434,7 +440,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>0.97199999999999998</v>
       </c>
       <c r="B3" s="1">
@@ -448,7 +454,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>0.94</v>
       </c>
       <c r="B4" s="1">
@@ -462,7 +468,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>0.90200000000000002</v>
       </c>
       <c r="B5" s="1">
@@ -476,7 +482,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>0.86099999999999999</v>
       </c>
       <c r="B6" s="1">
@@ -490,7 +496,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>0.78</v>
       </c>
       <c r="B7" s="1">
@@ -504,7 +510,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>0.72</v>
       </c>
       <c r="B8" s="1">
@@ -518,7 +524,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>0.63300000000000001</v>
       </c>
       <c r="B9" s="1">
@@ -532,7 +538,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>0.49</v>
       </c>
       <c r="B10" s="1">
@@ -546,7 +552,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>0.45</v>
       </c>
       <c r="B11" s="1">
@@ -560,7 +566,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>0.44</v>
       </c>
       <c r="B12" s="1">
@@ -574,7 +580,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>0.51300000000000001</v>
       </c>
       <c r="B13" s="1">
@@ -588,7 +594,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>0.63</v>
       </c>
       <c r="B14" s="1">
@@ -602,7 +608,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>0.70299999999999996</v>
       </c>
       <c r="B15" s="1">
@@ -616,7 +622,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>0.78</v>
       </c>
       <c r="B16" s="1">
@@ -630,7 +636,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>0.88</v>
       </c>
       <c r="B17" s="1">
@@ -644,7 +650,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>0.93</v>
       </c>
       <c r="B18" s="1">
@@ -658,7 +664,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>0.96</v>
       </c>
       <c r="B19" s="1">
@@ -672,7 +678,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>0.98</v>
       </c>
       <c r="B20" s="1">
@@ -686,68 +692,172 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="1">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="B21" s="1"/>
+      <c r="A21" s="2">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5.36</v>
+      </c>
+      <c r="C21">
+        <v>76</v>
+      </c>
       <c r="D21" s="1">
         <v>5.07</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="A22" s="2">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="B22" s="1">
+        <v>5.36</v>
+      </c>
+      <c r="C22">
+        <v>86</v>
+      </c>
+      <c r="D22" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="A23" s="2">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5.37</v>
+      </c>
+      <c r="C23">
+        <v>86</v>
+      </c>
+      <c r="D23" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="A24" s="2">
+        <v>0.111</v>
+      </c>
+      <c r="B24" s="1">
+        <v>5.38</v>
+      </c>
+      <c r="C24">
+        <v>85</v>
+      </c>
+      <c r="D24" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="A25" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5.38</v>
+      </c>
+      <c r="C25">
+        <v>83</v>
+      </c>
+      <c r="D25" s="1">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="A26" s="2">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="B26" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="C26">
+        <v>79</v>
+      </c>
+      <c r="D26" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="A27" s="2">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="B27" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="C27">
+        <v>-88</v>
+      </c>
+      <c r="D27" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="A28" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="B28" s="1">
+        <v>5.29</v>
+      </c>
+      <c r="C28">
+        <v>-87</v>
+      </c>
+      <c r="D28" s="1">
+        <v>18.3</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="A29" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="B29" s="1">
+        <v>5.31</v>
+      </c>
+      <c r="C29">
+        <v>-85</v>
+      </c>
+      <c r="D29" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="A30" s="2">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="B30" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="C30">
+        <v>-84</v>
+      </c>
+      <c r="D30" s="1">
+        <v>13.5</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="A31" s="2">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="B31" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="C31">
+        <v>-74</v>
+      </c>
+      <c r="D31" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="A32" s="2">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="B32" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="C32">
+        <v>-69</v>
+      </c>
+      <c r="D32" s="1">
+        <v>10.69</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
@@ -767,4 +877,324 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56DFDCC-E953-4992-B16D-CD486F32FA2E}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7.58</v>
+      </c>
+      <c r="C2" s="3">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1">
+        <v>9.0299999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2">
+        <v>0.376</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7.56</v>
+      </c>
+      <c r="C3" s="3">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7.53</v>
+      </c>
+      <c r="C4" s="3">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1">
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2">
+        <v>0.434</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2">
+        <v>0.441</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7.49</v>
+      </c>
+      <c r="C6" s="3">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7.49</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>9.91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7.47</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7.48</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7.48</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="B11" s="1">
+        <v>7.47</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10.050000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="B12" s="1">
+        <v>7.46</v>
+      </c>
+      <c r="C12" s="3">
+        <v>-3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7.45</v>
+      </c>
+      <c r="C13" s="3">
+        <v>-7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2">
+        <v>0.443</v>
+      </c>
+      <c r="B14" s="1">
+        <v>7.45</v>
+      </c>
+      <c r="C14" s="3">
+        <v>-10</v>
+      </c>
+      <c r="D14" s="1">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7.44</v>
+      </c>
+      <c r="C15" s="3">
+        <v>-18</v>
+      </c>
+      <c r="D15" s="1">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="B16" s="1">
+        <v>7.45</v>
+      </c>
+      <c r="C16" s="3">
+        <v>-28</v>
+      </c>
+      <c r="D16" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7.47</v>
+      </c>
+      <c r="C17" s="3">
+        <v>-49</v>
+      </c>
+      <c r="D17" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="B18" s="1">
+        <v>7.48</v>
+      </c>
+      <c r="C18" s="3">
+        <v>-60</v>
+      </c>
+      <c r="D18" s="1">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="B19" s="1">
+        <v>7.49</v>
+      </c>
+      <c r="C19" s="3">
+        <v>-65</v>
+      </c>
+      <c r="D19" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="B20" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="C20" s="3">
+        <v>64</v>
+      </c>
+      <c r="D20" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2">
+        <v>0.155</v>
+      </c>
+      <c r="B21" s="1">
+        <v>7.61</v>
+      </c>
+      <c r="C21" s="3">
+        <v>73</v>
+      </c>
+      <c r="D21" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>